--- a/score_dir/calibration_error/all_LMs/calerror_across_output_formats_ece.xlsx
+++ b/score_dir/calibration_error/all_LMs/calerror_across_output_formats_ece.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,7 +687,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>mistral-7B-instruct</t>
+          <t>mistral-7B-it</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -713,6 +713,102 @@
       <c r="F9" t="inlineStr">
         <is>
           <t>0.163</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>olmo-7B</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.136</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.171</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.182</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.228</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.164</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>olmo-7B-it</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.266</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.167</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.176</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.247</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.230</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>olmo-7B-it-rl</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0.381</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.154</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.158</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.240</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.225</t>
         </is>
       </c>
     </row>
